--- a/AplikasiInventarisBarang/data_barang.xlsx
+++ b/AplikasiInventarisBarang/data_barang.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
   <si>
     <t>Kode Barang</t>
   </si>
@@ -38,31 +38,31 @@
     <t>2024-11-02</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Elektronik</t>
+  </si>
+  <si>
+    <t>kd002</t>
+  </si>
+  <si>
+    <t>sapu</t>
+  </si>
+  <si>
+    <t>2024-11-01</t>
+  </si>
+  <si>
+    <t>Pecah Belah</t>
+  </si>
+  <si>
+    <t>kd003</t>
+  </si>
+  <si>
+    <t>buku</t>
+  </si>
+  <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>Elektronik</t>
-  </si>
-  <si>
-    <t>kd002</t>
-  </si>
-  <si>
-    <t>sapu</t>
-  </si>
-  <si>
-    <t>2024-11-01</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Pecah Belah</t>
-  </si>
-  <si>
-    <t>kd003</t>
-  </si>
-  <si>
-    <t>buku</t>
   </si>
   <si>
     <t>Sekali Pakai</t>
@@ -122,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -173,24 +173,24 @@
         <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>16</v>
-      </c>
       <c r="C4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>17</v>
@@ -207,10 +207,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -224,9 +224,179 @@
         <v>12</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>17</v>
       </c>
     </row>
